--- a/Keyword/keyword_analysis_results_전체.xlsx
+++ b/Keyword/keyword_analysis_results_전체.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaengJiwoo\.vscode\KISTI-intern\2025_KISTI-intern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaengJiwoo\.vscode\KISTI-intern\2025_KISTI-intern\Keyword\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56191C9-49DB-4FAE-97CA-39938EAB0ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B831A55-9D4C-401C-BA82-ADEF6E987DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="950" yWindow="670" windowWidth="23330" windowHeight="14730" tabRatio="759" firstSheet="1" activeTab="5" xr2:uid="{717C2024-0BDC-46F2-80EC-3512C9824726}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="759" firstSheet="1" activeTab="5" xr2:uid="{717C2024-0BDC-46F2-80EC-3512C9824726}"/>
   </bookViews>
   <sheets>
     <sheet name="keyword_analysis_results_4" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="keyword_analysis_results_6" sheetId="3" r:id="rId3"/>
     <sheet name="keyword_analysis_results_7" sheetId="4" r:id="rId4"/>
     <sheet name="keyword_analysis_results_8" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="keyword_analysis_results_9" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -5036,7 +5036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5086,12 +5086,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32584,7 +32578,7 @@
   <dimension ref="A1:D492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -32970,11 +32964,10 @@
       <c r="A42" s="9" t="s">
         <v>1381</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
@@ -33369,71 +33362,64 @@
       <c r="A86" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="17"/>
-      <c r="D86" s="18"/>
+      <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="17"/>
-      <c r="D87" s="18"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="17"/>
-      <c r="D88" s="18"/>
+      <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="17"/>
-      <c r="D89" s="18"/>
+      <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="17"/>
-      <c r="D90" s="18"/>
+      <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="9" t="s">
         <v>1380</v>
       </c>
-      <c r="B91" s="17" t="s">
+      <c r="B91" t="s">
         <v>180</v>
       </c>
-      <c r="C91" s="17"/>
-      <c r="D91" s="18"/>
+      <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B92" t="s">
         <v>138</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="18"/>
+      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="7" t="s">
@@ -36791,7 +36777,7 @@
       <c r="A463" s="9" t="s">
         <v>909</v>
       </c>
-      <c r="B463" s="17" t="s">
+      <c r="B463" t="s">
         <v>989</v>
       </c>
       <c r="D463" s="3"/>
@@ -36800,7 +36786,7 @@
       <c r="A464" s="9" t="s">
         <v>911</v>
       </c>
-      <c r="B464" s="17" t="s">
+      <c r="B464" t="s">
         <v>912</v>
       </c>
       <c r="D464" s="3"/>
@@ -36809,7 +36795,7 @@
       <c r="A465" s="9" t="s">
         <v>914</v>
       </c>
-      <c r="B465" s="17" t="s">
+      <c r="B465" t="s">
         <v>269</v>
       </c>
       <c r="D465" s="3"/>
@@ -36818,7 +36804,7 @@
       <c r="A466" s="9" t="s">
         <v>916</v>
       </c>
-      <c r="B466" s="17" t="s">
+      <c r="B466" t="s">
         <v>917</v>
       </c>
       <c r="D466" s="3"/>
@@ -36827,7 +36813,7 @@
       <c r="A467" s="9" t="s">
         <v>919</v>
       </c>
-      <c r="B467" s="17" t="s">
+      <c r="B467" t="s">
         <v>920</v>
       </c>
       <c r="D467" s="3"/>
@@ -36836,7 +36822,7 @@
       <c r="A468" s="9" t="s">
         <v>922</v>
       </c>
-      <c r="B468" s="17" t="s">
+      <c r="B468" t="s">
         <v>986</v>
       </c>
       <c r="D468" s="3"/>
